--- a/laboratory-core/src/main/resources/export-mode.xlsx
+++ b/laboratory-core/src/main/resources/export-mode.xlsx
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">编号
 </t>
     </r>
@@ -44,6 +50,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">代码
 </t>
     </r>
@@ -167,6 +179,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">号
 </t>
     </r>
@@ -182,6 +201,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">信息
 </t>
     </r>
@@ -197,6 +223,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">颜色
 </t>
     </r>
@@ -212,6 +245,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">数量（台）
 </t>
     </r>
@@ -249,6 +289,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">图
 </t>
     </r>
@@ -268,6 +315,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">数
 </t>
     </r>
@@ -1439,7 +1493,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9723755" y="3929380"/>
+          <a:off x="9723755" y="3986530"/>
           <a:ext cx="2524125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1477,7 +1531,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12838430" y="3929380"/>
+          <a:off x="12838430" y="3986530"/>
           <a:ext cx="2492375" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1515,7 +1569,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20336510" y="4057650"/>
+          <a:off x="20336510" y="4114800"/>
           <a:ext cx="254000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1553,7 +1607,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20336510" y="4057650"/>
+          <a:off x="20336510" y="4114800"/>
           <a:ext cx="254000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1827,10 +1881,10 @@
   <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="5" width="14" style="1" customWidth="1"/>
@@ -1944,7 +1998,7 @@
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
     </row>
-    <row r="3" ht="22.5" spans="17:28">
+    <row r="3" ht="27" spans="17:28">
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
@@ -2008,11 +2062,13 @@
       <c r="AA4" s="20"/>
       <c r="AB4" s="20"/>
     </row>
-    <row r="5" ht="27" spans="1:13">
+    <row r="5" ht="34.5" spans="1:13">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
